--- a/biology/Botanique/Aralie_à_grappes/Aralie_à_grappes.xlsx
+++ b/biology/Botanique/Aralie_à_grappes/Aralie_à_grappes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aralie_%C3%A0_grappes</t>
+          <t>Aralie_à_grappes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aralia racemosa
 L'Aralie à grappes (Aralia racemosa) est une espèce de plante herbacée vivace à feuillage caduc de la famille des Araliaceae. Elle est originaire des États-Unis et du Canada. Son aire de répartition natale comprend la plupart des États-Unis de l'Est. C'est une plante ornementale, d'environ 1 à 2 m de hauteur, qui pousse dans les zones ombragées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aralie_%C3%A0_grappes</t>
+          <t>Aralie_à_grappes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom Aralia lui a été donné en 1753 par Linné et son nom spécifique racemosa qui signifie racème fait référence aux fleurs réunies en racèmes, en grappes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom Aralia lui a été donné en 1753 par Linné et son nom spécifique racemosa qui signifie racème fait référence aux fleurs réunies en racèmes, en grappes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aralie_%C3%A0_grappes</t>
+          <t>Aralie_à_grappes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,47 +559,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Jeune plante.
 			Tige et feuille.
 			Feuilles.
-C'est une plante herbacée vivace à feuillage caduc haute de 1 à 1,50 m. Elle se développe sur un rhizome épais et des racines épicées et aromatiques dont on se sert parfois pour parfumer le thé ou la bière. Elle émet de grandes tiges ramifiées non ligneuses portant de grandes feuilles disposées de façon alterne. Ces feuilles sont imparipennées, composées de 9 à 21 folioles de forme cordée, au contour dentelé et à nervation pennée[2],[3],[4].
-Appareil reproducteur
+C'est une plante herbacée vivace à feuillage caduc haute de 1 à 1,50 m. Elle se développe sur un rhizome épais et des racines épicées et aromatiques dont on se sert parfois pour parfumer le thé ou la bière. Elle émet de grandes tiges ramifiées non ligneuses portant de grandes feuilles disposées de façon alterne. Ces feuilles sont imparipennées, composées de 9 à 21 folioles de forme cordée, au contour dentelé et à nervation pennée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aralie_à_grappes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aralie_%C3%A0_grappes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Fleurs.
 			Inflorescence.
 			Baies.
-L'Aralie à grappes est une plante hermaphrodite qui fleurit en juillet/août. Ses petites fleurs sont groupées en ombelles globuleuses formant à leur tour de longues panicules terminales ou axillaires. De couleur blanc verdâtre, elles présentent une corolle actinomorphe de 5 pétales et un androcée de 5 étamines. Ses fruits sont des baies de couleur pourpre foncé non comestibles hormis pour les oiseaux qui dispersent les graines de façon endozoochore[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aralie_%C3%A0_grappes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aralie_%C3%A0_grappes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat et distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse dans les bois et fourrés riches et humides. Le nard est originaire de l'est de l'Amérique du Nord; il s'étend aussi loin au nord que la région de Batchewana dans le district d'Algoma et la région de Thunder Bay dans l'ouest de l'Ontario[5].
+L'Aralie à grappes est une plante hermaphrodite qui fleurit en juillet/août. Ses petites fleurs sont groupées en ombelles globuleuses formant à leur tour de longues panicules terminales ou axillaires. De couleur blanc verdâtre, elles présentent une corolle actinomorphe de 5 pétales et un androcée de 5 étamines. Ses fruits sont des baies de couleur pourpre foncé non comestibles hormis pour les oiseaux qui dispersent les graines de façon endozoochore.
 </t>
         </is>
       </c>
@@ -596,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aralie_%C3%A0_grappes</t>
+          <t>Aralie_à_grappes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,15 +636,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicinales
-Cette espèce est utilisée en homéopathie et pharmacie pour traiter les crises d'asthme nocturne, toux spasmodique, rhume des foins et rhumatisme[6],[7].
-Alimentaires
-Le rhizome est très odorant, il est utilisé pour aromatiser certaines boissons et possède de nombreuses vertus médicinales[8]. Les baies peuvent être utilisées pour faire de la confiture[9].
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les bois et fourrés riches et humides. Le nard est originaire de l'est de l'Amérique du Nord; il s'étend aussi loin au nord que la région de Batchewana dans le district d'Algoma et la région de Thunder Bay dans l'ouest de l'Ontario.
 </t>
         </is>
       </c>
@@ -630,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aralie_%C3%A0_grappes</t>
+          <t>Aralie_à_grappes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,12 +669,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médicinales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est utilisée en homéopathie et pharmacie pour traiter les crises d'asthme nocturne, toux spasmodique, rhume des foins et rhumatisme,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aralie_à_grappes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aralie_%C3%A0_grappes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rhizome est très odorant, il est utilisé pour aromatiser certaines boissons et possède de nombreuses vertus médicinales. Les baies peuvent être utilisées pour faire de la confiture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aralie_à_grappes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aralie_%C3%A0_grappes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En verger potager forestier, en forêt jardinée, en lisière forestière, en trouée forestière, en bande riveraine[8].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En verger potager forestier, en forêt jardinée, en lisière forestière, en trouée forestière, en bande riveraine.
 </t>
         </is>
       </c>
